--- a/export.xlsx
+++ b/export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\midata-koordinaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grujo\Downloads\midata-koordinaten-master\midata-koordinaten-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B1431C-5C6F-4115-8396-D05ED7D8AD5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081D2516-5E70-4D32-AC89-C09D4ED93446}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{52DA58E9-9C7D-41B3-B1F7-2D6EE8029AD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{52DA58E9-9C7D-41B3-B1F7-2D6EE8029AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="148">
   <si>
     <t>3 Tannen</t>
   </si>
@@ -469,13 +467,25 @@
   </si>
   <si>
     <t>47.503405, 7.693257</t>
+  </si>
+  <si>
+    <t>47.545746, 7.556891</t>
+  </si>
+  <si>
+    <t>47.495671, 7.618811</t>
+  </si>
+  <si>
+    <t>47.526604, 7.647182</t>
+  </si>
+  <si>
+    <t>47.570477, 7.615999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +497,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,10 +533,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -532,8 +551,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -846,25 +869,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABDE99E-405F-4363-BC41-EFA4876EF728}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD59"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -887,7 +910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>791</v>
       </c>
@@ -910,7 +933,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>786</v>
       </c>
@@ -933,7 +956,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>787</v>
       </c>
@@ -956,7 +979,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>793</v>
       </c>
@@ -979,7 +1002,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>788</v>
       </c>
@@ -1002,7 +1025,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>789</v>
       </c>
@@ -1025,7 +1048,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1048,7 +1071,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>790</v>
       </c>
@@ -1071,7 +1094,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>800</v>
       </c>
@@ -1094,7 +1117,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>798</v>
       </c>
@@ -1117,7 +1140,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>796</v>
       </c>
@@ -1140,7 +1163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>810</v>
       </c>
@@ -1163,7 +1186,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>794</v>
       </c>
@@ -1186,7 +1209,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>805</v>
       </c>
@@ -1209,7 +1232,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>809</v>
       </c>
@@ -1232,7 +1255,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>795</v>
       </c>
@@ -1255,7 +1278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>797</v>
       </c>
@@ -1278,7 +1301,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>9024</v>
       </c>
@@ -1301,7 +1324,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>802</v>
       </c>
@@ -1324,7 +1347,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>803</v>
       </c>
@@ -1347,7 +1370,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>804</v>
       </c>
@@ -1370,7 +1393,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>806</v>
       </c>
@@ -1393,7 +1416,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>301</v>
       </c>
@@ -1416,7 +1439,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>807</v>
       </c>
@@ -1439,7 +1462,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>9150</v>
       </c>
@@ -1462,7 +1485,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>811</v>
       </c>
@@ -1485,7 +1508,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>812</v>
       </c>
@@ -1508,7 +1531,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>813</v>
       </c>
@@ -1531,7 +1554,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>814</v>
       </c>
@@ -1551,7 +1574,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>815</v>
       </c>
@@ -1574,7 +1597,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>817</v>
       </c>
@@ -1597,7 +1620,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>6828</v>
       </c>
@@ -1620,7 +1643,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>819</v>
       </c>
@@ -1643,7 +1666,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>816</v>
       </c>
@@ -1666,7 +1689,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>818</v>
       </c>
@@ -1689,7 +1712,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>820</v>
       </c>
@@ -1712,30 +1735,30 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>821</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>823</v>
       </c>
@@ -1758,7 +1781,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>822</v>
       </c>
@@ -1781,7 +1804,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>824</v>
       </c>
@@ -1804,10 +1827,26 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>109</v>
       </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="6"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="6"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="6"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="6"/>
+      <c r="H53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1817,15 +1856,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFCE535-FC14-446F-A1F7-09018E3F5D42}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:B89"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>73</v>
       </c>
@@ -1836,7 +1875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1908,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +1919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1891,7 +1930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1902,7 +1941,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1913,7 +1952,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1924,40 +1963,40 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1965,43 +2004,43 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2012,7 +2051,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2023,7 +2062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2034,7 +2073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2045,7 +2084,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2056,7 +2095,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2067,7 +2106,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2078,7 +2117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2089,128 +2128,128 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2218,10 +2257,10 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2229,10 +2268,10 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2240,98 +2279,98 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2339,10 +2378,10 @@
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2350,10 +2389,10 @@
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2361,21 +2400,21 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -2386,427 +2425,471 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>29</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>30</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>36</v>
       </c>
-      <c r="C62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="B71" t="s">
         <v>36</v>
       </c>
-      <c r="C63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="C71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>36</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B72" t="s">
         <v>36</v>
       </c>
-      <c r="C64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="C72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>36</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B73" t="s">
         <v>36</v>
       </c>
-      <c r="C65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>36</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B74" t="s">
         <v>36</v>
       </c>
-      <c r="C66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="C74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
         <v>36</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C75" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
         <v>36</v>
       </c>
-      <c r="C67" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="C76" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>37</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B77" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C78" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C79" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>38</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C81" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" t="s">
-        <v>43</v>
-      </c>
-      <c r="C79" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C81" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B82" t="s">
         <v>43</v>
       </c>
       <c r="C82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C88" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{7F81076D-E996-4BE0-905B-E044CA5333CD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C82">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C93">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
